--- a/Шпаргалка.xlsx
+++ b/Шпаргалка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER_LENA\Desktop\DS_HSE\DS_HSE_HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC1CAAD-F5D8-463D-8A47-6E03020AA437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7DE64E-F7E8-4947-B70B-832AA2693A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="17" activeTab="20" xr2:uid="{027B868B-8046-4676-A2B3-6D5F45B5997B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="17" activeTab="21" xr2:uid="{027B868B-8046-4676-A2B3-6D5F45B5997B}"/>
   </bookViews>
   <sheets>
     <sheet name="Оглавление" sheetId="23" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="834">
   <si>
     <t>Как задать пустой</t>
   </si>
@@ -5184,12 +5184,6 @@
     <t>https://disk.yandex.ru/d/ZcrDUSoJ2XKf6Q</t>
   </si>
   <si>
-    <t>Lect10_Numpy</t>
-  </si>
-  <si>
-    <t>Начало лекции</t>
-  </si>
-  <si>
     <t>Видео</t>
   </si>
   <si>
@@ -6586,236 +6580,6 @@
     <t>import pandas as pd</t>
   </si>
   <si>
-    <t>Гигиенический минимум анализа данных</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df.describe() </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>df.shape
-df.info()
-df.describe()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - выведет красивую табличку с кучей показателей</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">В случае количественных показателей этот метод возвращает таблицу с основными описательными статистиками:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – число непустых (заполненных) значений
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – среднее арифметическое
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>std</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – стандартное отклонение (показатель разброса данных относительно среднего значения)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>min</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – минимальное значение
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – максимальное значение
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – нижний квартиль (значение, которое 25% значений не превышают)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – медиана (значение, которое 50% значений не превышают)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>75%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – верхний квартиль (значение, которое 75% значений не превышают)</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -7008,12 +6772,2150 @@
 df_new = df.copy()  - копия датафрейма
 df_nenew = df          -  ссылка на df</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Добавление столбца
+Обращение к стобцу происходит через квадратные скобки и обязательно в кавычках
+Можно обратиться через точку, например так:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df.mstat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Но в случае если в название есть какие-то недопустимые символы вроде пробела это не получися</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">df['gogo gogo'] = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df['mstat']</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df[["soc", "polsoc"]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.head() - если нужно выбрать более одного столбца</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t># двоеточия тут это срезы
+df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['М141БПЛТЛ024':'М141БПЛТЛ075', 'econ' : 'law']
+df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['М141БПЛТЛ024', :]
+df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[:, 'econ' : 'law'].head(10)</t>
+    </r>
+  </si>
+  <si>
+    <t>cps      7.0
+mstat    9.0
+soc      8.0
+econ     8.0
+eng      9.0
+Name: М141БПЛТЛ024, dtype: float64</t>
+  </si>
+  <si>
+    <t>df.iloc[0, 0:5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iloc - работает по индексу(по порядковому номеру)
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Синтаксис кода с .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> несильно отличается от синтаксиса .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. В чем разница? Разница заключается в том, что метод .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> работает с т</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>екстовыми названиями</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, а метод .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – с </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>числовыми индексами</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Отсюда и префикс i в названии (i – индекс, loc – location). Если мы попытаемся в .iloc указать названия столбцов, Python выдаст ошибку</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Если нам нужно несколько столбцов подряд, начиная с одного названия и заканчивая другим, можно воспользоваться методом</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .loc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+см. Середину Lect10_Part2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Внимание</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Срезы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> по названиям захватывают весь указанный диапазон включая правый столбец. Но если делать срез по индексу (как по числовому значению), то правая граница не будет включаться.</t>
+    </r>
+  </si>
+  <si>
+    <t>df['mstat']</t>
+  </si>
+  <si>
+    <t>Выбра столбца по названию</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">df.loc['М141БПЛТЛ031']
+df.loc[['М141БПЛТЛ031','М141БПЛТЛ069']] # строки для двух студентов
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df["М141БПЛТЛ024":'М141БПЛТЛ069']</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Если нам нужно выбрать несколько строк подряд, то .loc не нужен</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Выбор строк по названию</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Как Python понимает, что мы просим вывести именно строки с такими названиями, а не столбцы? Потому что у нас стоят одинарные квадратные скобки, а не двойные, как в случае со столбцами.</t>
+    </r>
+  </si>
+  <si>
+    <t>Выбор строк по номеру</t>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iloc[2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+df</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[1:3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Если нужно несколько строк подряд, можно воспользоваться срезами
+df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iloc[[1, 2, 5, 10]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Если нужно несколько строк не подряд, можно просто перечислить внутри списка в .iloc:</t>
+    </r>
+  </si>
+  <si>
+    <t>Фильтрация</t>
+  </si>
+  <si>
+    <t>df[df['law'] &lt; 7]</t>
+  </si>
+  <si>
+    <t>Фильтрация прям почти как в NumPy</t>
+  </si>
+  <si>
+    <t>Похоже чем -то на listcomprehension</t>
+  </si>
+  <si>
+    <t>Удаление пропущенных значений</t>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dropna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>() - так просто выведет датасет без пустых значений
+df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dropna(inplace=True)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - так применит результат функции dropna к датасету и удалит в нем строки с пустыми значениями</t>
+    </r>
+  </si>
+  <si>
+    <t>Удаляет все строки, в которых хотя бы в одной ячейке были пропущены значения (равны Nan)
+Читается как дроп эн эй</t>
+  </si>
+  <si>
+    <t>Если в колонце есть пустые значения, а колонка была типа int, то её тип сразу станет float
+Если из колонки удалить значения Nan, то тип всё равно останется float</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Преобразование типов столбцов</t>
+  </si>
+  <si>
+    <r>
+      <t>Метод .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>astype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>() - преобразует тип данных стобца в тот, который мы укажем</t>
+    </r>
+  </si>
+  <si>
+    <t>Деструктор del можно использовать если хотим насовсем удалить какой-то столбец</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>del</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> df['gogo gogo']</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df['phist'] = df['phist'].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>astype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(int)
+df['male'] = df['male'].astype(bool)</t>
+    </r>
+  </si>
+  <si>
+    <t>Описательные статистики и базовые графики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вместо полного описания датафрейма методом describe можно получать отдельные значения определенных метрик
+</t>
+  </si>
+  <si>
+    <t>Запись тут такая же как в numpy, но вместо массива мы передаем Series</t>
+  </si>
+  <si>
+    <r>
+      <t>df['mstat'].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mean()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+dict(df.median())</t>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["М141БПЛТЛ023"].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">() </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df['mstat'].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>std</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df['mstat'].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df['mstat'].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df['mstat'].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quantile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(.25)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df['mstat'].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quantile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(.9)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>median</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>Запрос статистики по отдельным наблюдениям (строкам)
+Средний балл студента по всем курсам</t>
+  </si>
+  <si>
+    <t>import matplotlib</t>
+  </si>
+  <si>
+    <t>Среднее арифметическое</t>
+  </si>
+  <si>
+    <t>Стандартное отклонение</t>
+  </si>
+  <si>
+    <t>Минимальное</t>
+  </si>
+  <si>
+    <t>Максимальное</t>
+  </si>
+  <si>
+    <t>Квантиль 90%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%matplotlib inline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> #это магическая функция, которая позволяет отрисовывать графики в тетрадке (но уже работает и даже если не запускать эту строчку, но это как дань уважения)</t>
+    </r>
+  </si>
+  <si>
+    <t>Графики</t>
+  </si>
+  <si>
+    <t>Построим гистограмму для оценок по теории игр.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df["compp"].plot.hist();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> # histogram   </t>
+    </r>
+  </si>
+  <si>
+    <t>Внизу на линии - это оценки</t>
+  </si>
+  <si>
+    <t>Слева - частота, т.е. кол-во этих самых оценок</t>
+  </si>
+  <si>
+    <t>Т.е. пятерок у нас здесь было 15 штук</t>
+  </si>
+  <si>
+    <t>Что показывает этот график? Он показывает, сколько студентов получили те или иные оценки.</t>
+  </si>
+  <si>
+    <t>Если не поставить точку с запятой, то выведется еще миниИнфо, на исполняемость кода она не влияет
+Обращаемся к колонке df["compp"]
+.plot.hist() - делаем гистограмму</t>
+  </si>
+  <si>
+    <t>25-ый перцентиль</t>
+  </si>
+  <si>
+    <t>Поменять цвет гистограммы</t>
+  </si>
+  <si>
+    <r>
+      <t>df["game"].plot.hist(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>color="red"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">);    #это </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> color</t>
+    </r>
+  </si>
+  <si>
+    <t>Поменять число столбцов и цвет границ столбцов</t>
+  </si>
+  <si>
+    <t>Строим Ящик с усами (свеча)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">df["game"].plot.hist(color = "red", </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 5, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>edgecolor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 'black')</t>
+    </r>
+  </si>
+  <si>
+    <t>df["game"].plot.box(); # boxplot</t>
+  </si>
+  <si>
+    <t>два усика и коробочка</t>
+  </si>
+  <si>
+    <t>нижняя часть коробочки - это нижний перцентиль</t>
+  </si>
+  <si>
+    <t>зелененькое - это медиана</t>
+  </si>
+  <si>
+    <t>верхняя - 75%</t>
+  </si>
+  <si>
+    <t>усы - это не всегда минимальное и максимальное значение</t>
+  </si>
+  <si>
+    <t>Усы графика могут откладываться по-разному: если в переменной встречаются нетипичные значения (выбросы), то границы усов совпадают с границами типичных значений, если нетипичных значений нет, границы усов соответствуют минимальному и максимальному значению переменной.</t>
+  </si>
+  <si>
+    <t>Подробнее про ящик с усами см. здесь.</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/OSp2qDGwWtuQDA</t>
+  </si>
+  <si>
+    <t>Ссылка на запись консультации 04.12.2023</t>
+  </si>
+  <si>
+    <t>Лекция 8</t>
+  </si>
+  <si>
+    <t>Лекция 9</t>
+  </si>
+  <si>
+    <t>Лекция 10</t>
+  </si>
+  <si>
+    <t>Лекция 11</t>
+  </si>
+  <si>
+    <t>Лекция 12</t>
+  </si>
+  <si>
+    <t>Лекция 13</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/d8K7cGfcV_tYkA</t>
+  </si>
+  <si>
+    <t>Ссылка на запись консультации 06.12.2023</t>
+  </si>
+  <si>
+    <t>Ссылка на запись занятия 11.12.2023</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/YyHdNpIcP9YETQ</t>
+  </si>
+  <si>
+    <t>Ссылка на запись занятия 13.12.2023</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/d/eLUkZhx-aiOxQA</t>
+  </si>
+  <si>
+    <t>Ссылка на запись занятия 18.12.2023</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/QSJodUV1eelbhA</t>
+  </si>
+  <si>
+    <t>Ссылка на запись занятия 25.12.2023</t>
+  </si>
+  <si>
+    <t>ООП Классы</t>
+  </si>
+  <si>
+    <t>Телеграм-Бот</t>
+  </si>
+  <si>
+    <t>Numpy, Pandas</t>
+  </si>
+  <si>
+    <t>Pandas EDA, html,requests</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>Parsing html</t>
+  </si>
+  <si>
+    <t>Регулярные выражения</t>
+  </si>
+  <si>
+    <t>Лекция 1</t>
+  </si>
+  <si>
+    <t>Лекция 2</t>
+  </si>
+  <si>
+    <t>Лекция 3</t>
+  </si>
+  <si>
+    <t>Лекция 4</t>
+  </si>
+  <si>
+    <t>Лекция 5</t>
+  </si>
+  <si>
+    <t>Лекция 6</t>
+  </si>
+  <si>
+    <t>Лекция 7</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/RajXXC1CrsyWOg</t>
+  </si>
+  <si>
+    <t>Текстовые файлы и таблицы</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/d/fXd-t070GHmmWg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/qwVMwd7O3xa7Ag</t>
+  </si>
+  <si>
+    <t>Функции. Рекурсия. О-нотация</t>
+  </si>
+  <si>
+    <t>Цикл for. Вложенный цикл for</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/2vhxQ55_C4Uy_A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/xwLtlcyjfux7KQ</t>
+  </si>
+  <si>
+    <t>Множества. Словари. Вложенные структуры данных. Методы строк, списков. Срезы</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/nwTB1Lx5i1SZHg</t>
+  </si>
+  <si>
+    <t>Логические переменные, операции и операторы сравнения. Условия if-elif-else. Условный цикл while. Списки, кортежи, последовательности</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/7UJrS5hSpXYpYQ</t>
+  </si>
+  <si>
+    <t>Python Введение в Python, Jupyter. Ввод-вывод, основные типы данных (int, float, str). Первые функции</t>
+  </si>
+  <si>
+    <t>Тема</t>
+  </si>
+  <si>
+    <t>24:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>Начало лекции (минута:секунда)</t>
+  </si>
+  <si>
+    <t>Lect11_Part1</t>
+  </si>
+  <si>
+    <t>Документация</t>
+  </si>
+  <si>
+    <t>Pandas Cheat-Sheet</t>
+  </si>
+  <si>
+    <t>https://pandas.pydata.org/Pandas_Cheat_Sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://pandas.pydata.org/pandas-docs/stable/user_guide/10min.html#min</t>
+  </si>
+  <si>
+    <t>https://pandas.pydata.org/</t>
+  </si>
+  <si>
+    <t>10 minutes intro (Чтобы освежить в памяти)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Функция </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read_excel</t>
+    </r>
+  </si>
+  <si>
+    <t>Аналогично read_csv считывает данные в формате xls(x)</t>
+  </si>
+  <si>
+    <t>https://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html</t>
+  </si>
+  <si>
+    <r>
+      <t>data.describe().</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>applymap('{:,.2f}'.format)</t>
+    </r>
+  </si>
+  <si>
+    <t>Чтобы сделать форматирование читабельнее</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df.shape
+df.info()
+df.dtypes
+df.describe()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - выведет красивую табличку с кучей показателей</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Гигиенический минимум анализа данных
+В dtypes </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - это строчной тип данных </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>describe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>() 
+data[['Age', 'Fare', 'Survived']].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>describe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">() # также можно применять только к отдельным колонкам
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В случае количественных показателей этот метод возвращает таблицу с основными описательными статистиками:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – число непустых (заполненных) значений
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – среднее арифметическое
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>std</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – стандартное отклонение (показатель разброса данных относительно среднего значения). Выражаясь простыми словами, насколько далеко от среднего арифметического (mean) находятся точки данных. Чем выше значение стандартного отклонения, тем более разбросаны значения в выборке. И наоборот, чем ниже значение стандартного отклонения, тем более плотно упакованы значения.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – минимальное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – максимальное значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – нижний квартиль (значение, которое 25% значений не превышают) (25% перцентиль)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – медиана (значение, которое 50% значений не превышают) (50% перцентиль)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>75%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – верхний квартиль (значение, которое 75% значений не превышают) (75% перцентиль)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://vk.com/@hsotalks-zachem-yaschiku-usy-kvartili-raspredeleniya</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Подробнее про квантили и перцентили: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://vk.com/@hsotalks-zachem-yaschiku-usy-kvartili-raspredeleniya</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>data.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>describe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include=['object']</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Просто describe - выводи т статистику только по числовым и булевым значениям
+А если нам нужно посомтреть еще и по текстовым, то нужно использовать include=['object']
+В таком варианте выведетеся следующая статистика:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Кол-во данных (кол-во ненулевых(не Nan) значений)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Кол-во уникальных значений
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Выводит значения, которые чаще всего встречаются. В каждом столбце своё.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>freq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Относится к строке, которая выведена в top и означает кол-во встречаемых значений в строчке top
+</t>
+    </r>
+  </si>
+  <si>
+    <t>data['FamilySize'] = data['SibSp'] + data['Parch']</t>
+  </si>
+  <si>
+    <t>Создали новый столбец как сумма двух других</t>
+  </si>
+  <si>
+    <r>
+      <t>data['Alone'] = data['FamilySize'].apply(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x: 1 if x == 0 else 0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Применение </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>лямбда</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> функции:
+создадим переменную, которая бы нам показывала, что пассажир ехал в одиночку. Такой пассажир путешествовал без родственников</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Применим функцию посложнее
+Из строки Name достали титул (Mr, Mrs …)
+</t>
+  </si>
+  <si>
+    <r>
+      <t>def return_title(full_name):
+    return full_name.split(', ')[1].split('.')[0] + '.'
+data['Title'] = data.Name.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(return_title)</t>
+    </r>
+  </si>
+  <si>
+    <t>Разные операции с Датафреймом</t>
+  </si>
+  <si>
+    <t>Выведет массив уникальных значений заданного столбца</t>
+  </si>
+  <si>
+    <t>Выведет кол-во уникальных значений заданного столбца</t>
+  </si>
+  <si>
+    <r>
+      <t>data['Title'].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value_counts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>data['Title'].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>data['Title'].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nunique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>Подсчитает частоту встречаемости каждого значения</t>
+  </si>
+  <si>
+    <r>
+      <t>data['Title'].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value_counts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>normalize=True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) # * 100</t>
+    </r>
+  </si>
+  <si>
+    <t>Подсчитает частоту встречаемости каждого значения в процентах</t>
+  </si>
+  <si>
+    <t>data['Title'] = data['Title'].apply(lambda x: 'Misc' if x not in ['Mr.', 'Miss.', 'Mrs.', 'Master.'] else x)</t>
+  </si>
+  <si>
+    <t>Переименовывем редковстречающиеся титулы в Misc (Другие)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7249,6 +9151,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -7294,7 +9212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -7414,12 +9332,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7662,7 +9593,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7697,21 +9627,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7735,6 +9650,47 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -7922,6 +9878,186 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>528918</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>871767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FEFA9C-6623-4ABA-AF9F-58284C9CEC96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077200" y="11940988"/>
+          <a:ext cx="3998259" cy="835908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3738283</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>109892</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81E6A42-F1EB-4F35-8386-F8797216B5F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="27889200"/>
+          <a:ext cx="3738283" cy="2377963"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3734191</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>71716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4E6D35-FF12-4B6D-8DC5-B5A4818BF35D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="30677223"/>
+          <a:ext cx="3734191" cy="2779059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>143435</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>439272</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2205319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0241066A-4F4B-4A26-BFE5-7E839536BD3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="6098"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8211670" y="8193742"/>
+          <a:ext cx="6212543" cy="2205318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -11524,7 +13660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1252225C-BA6B-4FEC-AE5B-377D44CF1DDB}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -11545,290 +13681,290 @@
       <c r="A2" s="73"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="91" t="s">
-        <v>484</v>
+      <c r="A3" s="90" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106" t="s">
-        <v>493</v>
-      </c>
-      <c r="B8" s="106"/>
+      <c r="A8" s="120" t="s">
+        <v>491</v>
+      </c>
+      <c r="B8" s="120"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
+        <v>564</v>
+      </c>
+      <c r="B9" s="100"/>
+      <c r="C9" s="92"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="100" t="s">
+        <v>565</v>
+      </c>
+      <c r="B10" s="100" t="s">
+        <v>567</v>
+      </c>
+      <c r="C10" s="92" t="s">
         <v>566</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="93"/>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="101" t="s">
-        <v>567</v>
-      </c>
-      <c r="B10" s="101" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A11" s="101" t="s">
         <v>569</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="B11" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="C11" s="91" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A11" s="102" t="s">
+    <row r="12" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="101" t="s">
         <v>571</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B12" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="C12" s="103" t="s">
         <v>572</v>
       </c>
-      <c r="C11" s="92" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
-        <v>573</v>
-      </c>
-      <c r="B12" s="101" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A13" s="101" t="s">
+        <v>574</v>
+      </c>
+      <c r="B13" s="100" t="s">
         <v>575</v>
       </c>
-      <c r="C12" s="104" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A13" s="102" t="s">
+      <c r="C13" s="103" t="s">
         <v>576</v>
       </c>
-      <c r="B13" s="101" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="101" t="s">
         <v>577</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="B14" s="100" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="s">
+      <c r="C14" s="103" t="s">
         <v>579</v>
       </c>
-      <c r="B14" s="101" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="101" t="s">
+        <v>581</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>582</v>
+      </c>
+      <c r="C15" s="103" t="s">
         <v>580</v>
       </c>
-      <c r="C14" s="104" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="102" t="s">
-        <v>583</v>
-      </c>
-      <c r="B15" s="101" t="s">
-        <v>584</v>
-      </c>
-      <c r="C15" s="104" t="s">
-        <v>582</v>
-      </c>
     </row>
     <row r="16" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="102"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="103"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="102"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="102"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="103"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="102"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="93" t="s">
+        <v>486</v>
+      </c>
+      <c r="B18" s="94" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="91" t="s">
+        <v>483</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="91" t="s">
+        <v>484</v>
+      </c>
+      <c r="B20" s="91" t="s">
         <v>488</v>
       </c>
-      <c r="B18" s="95" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="92" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="91" t="s">
         <v>485</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B21" s="91" t="s">
         <v>489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="92" t="s">
-        <v>486</v>
-      </c>
-      <c r="B20" s="92" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="92" t="s">
-        <v>487</v>
-      </c>
-      <c r="B21" s="92" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>497</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" s="13"/>
     </row>
     <row r="26" spans="1:3" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="105" t="s">
-        <v>519</v>
-      </c>
-      <c r="B26" s="105"/>
+      <c r="A26" s="119" t="s">
+        <v>517</v>
+      </c>
+      <c r="B26" s="119"/>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="91" t="s">
+        <v>501</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>502</v>
+      </c>
+      <c r="C27" s="92" t="s">
         <v>503</v>
       </c>
-      <c r="B27" s="92" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="91" t="s">
+        <v>500</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>499</v>
+      </c>
+      <c r="C28" s="91" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="91" t="s">
         <v>504</v>
       </c>
-      <c r="C27" s="93" t="s">
+      <c r="B29" s="91" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="B28" s="92" t="s">
-        <v>501</v>
-      </c>
-      <c r="C28" s="92" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="92" t="s">
+      <c r="C29" s="91" t="s">
         <v>506</v>
       </c>
-      <c r="B29" s="92" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="90" t="s">
         <v>507</v>
-      </c>
-      <c r="C29" s="92" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="91" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C32" s="91" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="95" t="s">
+        <v>509</v>
+      </c>
+      <c r="B33" s="96" t="s">
         <v>510</v>
       </c>
-      <c r="C32" s="92" t="s">
+      <c r="C33" s="91" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="96" t="s">
+    <row r="34" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="95" t="s">
         <v>511</v>
       </c>
-      <c r="B33" s="97" t="s">
+      <c r="B34" s="96" t="s">
         <v>512</v>
       </c>
-      <c r="C33" s="92" t="s">
+      <c r="C34" s="91" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="95" t="s">
+        <v>513</v>
+      </c>
+      <c r="B35" s="96" t="s">
+        <v>514</v>
+      </c>
+      <c r="C35" s="91" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="96" t="s">
-        <v>513</v>
-      </c>
-      <c r="B34" s="97" t="s">
-        <v>514</v>
-      </c>
-      <c r="C34" s="92" t="s">
+    <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="95" t="s">
+        <v>515</v>
+      </c>
+      <c r="B36" s="96" t="s">
+        <v>516</v>
+      </c>
+      <c r="C36" s="91" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="90" t="s">
         <v>523</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="96" t="s">
-        <v>515</v>
-      </c>
-      <c r="B35" s="97" t="s">
-        <v>516</v>
-      </c>
-      <c r="C35" s="92" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="96" t="s">
-        <v>517</v>
-      </c>
-      <c r="B36" s="97" t="s">
-        <v>518</v>
-      </c>
-      <c r="C36" s="92" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="91" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B41" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B42" s="76">
         <v>5</v>
@@ -11836,487 +13972,487 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>531</v>
-      </c>
-      <c r="B43" s="98">
+        <v>529</v>
+      </c>
+      <c r="B43" s="97">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>532</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="90" t="s">
         <v>534</v>
       </c>
-      <c r="B45" s="13" t="s">
+    </row>
+    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="91" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="91" t="s">
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="92" t="s">
+        <v>543</v>
+      </c>
+      <c r="B49" s="92" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="92" t="s">
+      <c r="C49" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="92" t="s">
+        <v>544</v>
+      </c>
+      <c r="B50" s="92" t="s">
         <v>537</v>
       </c>
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="93" t="s">
+      <c r="C50" s="98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="92" t="s">
         <v>545</v>
       </c>
-      <c r="B49" s="93" t="s">
+      <c r="B51" s="92" t="s">
         <v>538</v>
       </c>
-      <c r="C49" s="99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="93" t="s">
+      <c r="C51" s="92" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="92" t="s">
+        <v>542</v>
+      </c>
+      <c r="B52" s="92" t="s">
+        <v>540</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="91" t="s">
         <v>546</v>
       </c>
-      <c r="B50" s="93" t="s">
-        <v>539</v>
-      </c>
-      <c r="C50" s="99">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="93" t="s">
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+    </row>
+    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="95" t="s">
         <v>547</v>
       </c>
-      <c r="B51" s="93" t="s">
-        <v>540</v>
-      </c>
-      <c r="C51" s="93" t="s">
+      <c r="B54" s="91" t="s">
+        <v>548</v>
+      </c>
+      <c r="C54" s="92" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="93" t="s">
-        <v>544</v>
-      </c>
-      <c r="B52" s="93" t="s">
-        <v>542</v>
-      </c>
-      <c r="C52" s="93" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="92" t="s">
-        <v>548</v>
-      </c>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-    </row>
-    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="96" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="95" t="s">
         <v>549</v>
       </c>
-      <c r="B54" s="92" t="s">
+      <c r="B55" s="92" t="s">
         <v>550</v>
       </c>
-      <c r="C54" s="93" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="96" t="s">
+      <c r="C55" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="95" t="s">
         <v>551</v>
       </c>
-      <c r="B55" s="93" t="s">
+      <c r="B56" s="92" t="s">
         <v>552</v>
       </c>
-      <c r="C55" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="96" t="s">
-        <v>553</v>
-      </c>
-      <c r="B56" s="93" t="s">
+      <c r="C56" s="98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="97"/>
+    </row>
+    <row r="58" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="91" t="s">
         <v>554</v>
       </c>
-      <c r="C56" s="99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="98"/>
-    </row>
-    <row r="58" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="92" t="s">
+      <c r="B58" s="99" t="s">
+        <v>559</v>
+      </c>
+      <c r="C58" s="98"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="92" t="s">
+        <v>555</v>
+      </c>
+      <c r="B59" s="92" t="s">
         <v>556</v>
       </c>
-      <c r="B58" s="100" t="s">
+      <c r="C59" s="98"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="92" t="s">
+        <v>557</v>
+      </c>
+      <c r="B60" s="92" t="s">
+        <v>558</v>
+      </c>
+      <c r="C60" s="98"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="92" t="s">
+        <v>560</v>
+      </c>
+      <c r="B61" s="92" t="s">
         <v>561</v>
       </c>
-      <c r="C58" s="99"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="93" t="s">
-        <v>557</v>
-      </c>
-      <c r="B59" s="93" t="s">
-        <v>558</v>
-      </c>
-      <c r="C59" s="99"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="93" t="s">
-        <v>559</v>
-      </c>
-      <c r="B60" s="93" t="s">
-        <v>560</v>
-      </c>
-      <c r="C60" s="99"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="93" t="s">
+      <c r="C61" s="98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="92" t="s">
         <v>562</v>
       </c>
-      <c r="B61" s="93" t="s">
+      <c r="B62" s="92" t="s">
         <v>563</v>
       </c>
-      <c r="C61" s="99">
+      <c r="C62" s="92"/>
+    </row>
+    <row r="64" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="91" t="s">
+        <v>584</v>
+      </c>
+      <c r="B64" s="91" t="s">
+        <v>588</v>
+      </c>
+      <c r="C64" s="104" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="92" t="s">
+        <v>585</v>
+      </c>
+      <c r="B65" s="92" t="s">
+        <v>586</v>
+      </c>
+      <c r="C65" s="104" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="92" t="s">
+        <v>589</v>
+      </c>
+      <c r="B66" s="92" t="s">
+        <v>590</v>
+      </c>
+      <c r="C66" s="105" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="92" t="s">
+        <v>592</v>
+      </c>
+      <c r="B67" s="92" t="s">
+        <v>593</v>
+      </c>
+      <c r="C67" s="105" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="90" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="91" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="106" t="s">
+        <v>596</v>
+      </c>
+      <c r="B72" s="91" t="s">
+        <v>597</v>
+      </c>
+      <c r="C72" s="92"/>
+    </row>
+    <row r="73" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="107" t="s">
+        <v>598</v>
+      </c>
+      <c r="B73" s="91" t="s">
+        <v>599</v>
+      </c>
+      <c r="C73" s="92"/>
+    </row>
+    <row r="74" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="107" t="s">
+        <v>600</v>
+      </c>
+      <c r="B74" s="91" t="s">
+        <v>601</v>
+      </c>
+      <c r="C74" s="98">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="93" t="s">
-        <v>564</v>
-      </c>
-      <c r="B62" s="93" t="s">
-        <v>565</v>
-      </c>
-      <c r="C62" s="93"/>
-    </row>
-    <row r="64" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="92" t="s">
-        <v>586</v>
-      </c>
-      <c r="B64" s="92" t="s">
-        <v>590</v>
-      </c>
-      <c r="C64" s="110" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="93" t="s">
-        <v>587</v>
-      </c>
-      <c r="B65" s="93" t="s">
-        <v>588</v>
-      </c>
-      <c r="C65" s="110" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="93" t="s">
-        <v>591</v>
-      </c>
-      <c r="B66" s="93" t="s">
-        <v>592</v>
-      </c>
-      <c r="C66" s="111" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="93" t="s">
-        <v>594</v>
-      </c>
-      <c r="B67" s="93" t="s">
-        <v>595</v>
-      </c>
-      <c r="C67" s="111" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="91" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="92" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="112" t="s">
-        <v>598</v>
-      </c>
-      <c r="B72" s="92" t="s">
-        <v>599</v>
-      </c>
-      <c r="C72" s="93"/>
-    </row>
-    <row r="73" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="113" t="s">
-        <v>600</v>
-      </c>
-      <c r="B73" s="92" t="s">
-        <v>601</v>
-      </c>
-      <c r="C73" s="93"/>
-    </row>
-    <row r="74" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="113" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="92" t="s">
         <v>602</v>
       </c>
-      <c r="B74" s="92" t="s">
+      <c r="B75" s="92"/>
+      <c r="C75" s="98">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="91" t="s">
+        <v>604</v>
+      </c>
+      <c r="B76" s="91" t="s">
+        <v>605</v>
+      </c>
+      <c r="C76" s="92" t="s">
         <v>603</v>
       </c>
-      <c r="C74" s="99">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="93" t="s">
-        <v>604</v>
-      </c>
-      <c r="B75" s="93"/>
-      <c r="C75" s="99">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="92" t="s">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="90" t="s">
         <v>606</v>
       </c>
-      <c r="B76" s="92" t="s">
+    </row>
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="96" t="s">
         <v>607</v>
       </c>
-      <c r="C76" s="93" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="91" t="s">
+      <c r="B79" s="112" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="97" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="108" t="s">
+        <v>618</v>
+      </c>
+      <c r="B80" s="109" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="110" t="s">
+        <v>617</v>
+      </c>
+      <c r="B81" s="111" t="s">
         <v>609</v>
       </c>
-      <c r="B79" s="118" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="114" t="s">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="108" t="s">
+        <v>616</v>
+      </c>
+      <c r="B82" s="109" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="113" t="s">
+        <v>615</v>
+      </c>
+      <c r="B83" s="114" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="115" t="s">
+        <v>614</v>
+      </c>
+      <c r="B84" s="115" t="s">
+        <v>613</v>
+      </c>
+      <c r="C84" s="92" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="115" t="s">
         <v>620</v>
       </c>
-      <c r="B80" s="115" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="116" t="s">
-        <v>619</v>
-      </c>
-      <c r="B81" s="117" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="114" t="s">
-        <v>618</v>
-      </c>
-      <c r="B82" s="115" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="119" t="s">
-        <v>617</v>
-      </c>
-      <c r="B83" s="120" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="121" t="s">
-        <v>616</v>
-      </c>
-      <c r="B84" s="121" t="s">
-        <v>615</v>
-      </c>
-      <c r="C84" s="93" t="s">
+      <c r="B85" s="92"/>
+      <c r="C85" s="91" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="121" t="s">
+    <row r="86" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="115" t="s">
         <v>622</v>
       </c>
-      <c r="B85" s="93"/>
-      <c r="C85" s="92" t="s">
+      <c r="B86" s="92"/>
+      <c r="C86" s="91" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="121" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="115" t="s">
         <v>624</v>
       </c>
-      <c r="B86" s="93"/>
-      <c r="C86" s="92" t="s">
+      <c r="B87" s="115" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="121" t="s">
+      <c r="C87" s="116" t="s">
         <v>626</v>
       </c>
-      <c r="B87" s="121" t="s">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="117" t="s">
         <v>627</v>
       </c>
-      <c r="C87" s="122" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="123" t="s">
-        <v>629</v>
-      </c>
       <c r="B89" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="C91" s="13" t="s">
         <v>631</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="B93" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="90" t="s">
         <v>637</v>
       </c>
-      <c r="B93" t="s">
+    </row>
+    <row r="97" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="118" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="91" t="s">
+      <c r="B97" s="91" t="s">
+        <v>640</v>
+      </c>
+      <c r="C97" s="91" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="124" t="s">
-        <v>640</v>
-      </c>
-      <c r="B97" s="92" t="s">
+    <row r="98" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="118" t="s">
+        <v>641</v>
+      </c>
+      <c r="B98" s="91" t="s">
         <v>642</v>
       </c>
-      <c r="C97" s="92" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="124" t="s">
+      <c r="C98" s="91" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="95" t="s">
+        <v>644</v>
+      </c>
+      <c r="B99" s="92" t="s">
         <v>643</v>
       </c>
-      <c r="B98" s="92" t="s">
-        <v>644</v>
-      </c>
-      <c r="C98" s="92" t="s">
+      <c r="C99" s="92" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A100" s="118" t="s">
+        <v>645</v>
+      </c>
+      <c r="B100" s="91" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="96" t="s">
-        <v>646</v>
-      </c>
-      <c r="B99" s="93" t="s">
-        <v>645</v>
-      </c>
-      <c r="C99" s="93" t="s">
+      <c r="C100" s="91" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A100" s="124" t="s">
-        <v>647</v>
-      </c>
-      <c r="B100" s="92" t="s">
+    <row r="101" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A101" s="118" t="s">
+        <v>650</v>
+      </c>
+      <c r="B101" s="91" t="s">
         <v>651</v>
       </c>
-      <c r="C100" s="92" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A101" s="124" t="s">
+      <c r="C101" s="92"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="118" t="s">
+        <v>654</v>
+      </c>
+      <c r="B102" s="91" t="s">
         <v>652</v>
       </c>
-      <c r="B101" s="92" t="s">
+      <c r="C102" s="91" t="s">
         <v>653</v>
       </c>
-      <c r="C101" s="93"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="124" t="s">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="92"/>
+      <c r="B103" s="91" t="s">
+        <v>655</v>
+      </c>
+      <c r="C103" s="92" t="s">
         <v>656</v>
       </c>
-      <c r="B102" s="92" t="s">
-        <v>654</v>
-      </c>
-      <c r="C102" s="92" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="93"/>
-      <c r="B103" s="92" t="s">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="92"/>
+      <c r="B104" s="91" t="s">
         <v>657</v>
       </c>
-      <c r="C103" s="93" t="s">
+      <c r="C104" s="91" t="s">
         <v>658</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="93"/>
-      <c r="B104" s="92" t="s">
-        <v>659</v>
-      </c>
-      <c r="C104" s="92" t="s">
-        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -12342,192 +14478,988 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A444C651-E11D-4084-9BBE-7839AB77F374}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.109375" customWidth="1"/>
+    <col min="1" max="1" width="59.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.44140625" customWidth="1"/>
     <col min="3" max="3" width="41.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="str">
         <f>HYPERLINK("#Оглавление!A1","Назад в Оглавление")</f>
         <v>Назад в Оглавление</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="90" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B5" s="131" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B6" s="131" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B7" s="131" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="91" t="s">
+      <c r="B11" s="91" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="91" t="s">
+        <v>809</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+      <c r="A14" s="91" t="s">
+        <v>811</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>812</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>814</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="133" t="s">
+        <v>807</v>
+      </c>
+      <c r="B15" s="134" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="92" t="s">
+        <v>815</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>816</v>
+      </c>
+      <c r="C16" s="92"/>
+    </row>
+    <row r="18" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="92" t="s">
+        <v>664</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>666</v>
+      </c>
+      <c r="C18" s="121" t="s">
         <v>665</v>
       </c>
-      <c r="B5" s="13" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="90" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="91" t="s">
+        <v>669</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>668</v>
+      </c>
+      <c r="C21" s="92"/>
+    </row>
+    <row r="22" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A22" s="106" t="s">
+        <v>670</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="C22" s="104" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="92" t="s">
+        <v>673</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>675</v>
+      </c>
+      <c r="C23" s="104" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="91" t="s">
+        <v>677</v>
+      </c>
+      <c r="B24" s="122" t="s">
+        <v>676</v>
+      </c>
+      <c r="C24" s="92"/>
+    </row>
+    <row r="25" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="91" t="s">
+        <v>680</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>679</v>
+      </c>
+      <c r="C25" s="92"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="91" t="s">
+        <v>687</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>688</v>
+      </c>
+      <c r="C26" s="92"/>
+    </row>
+    <row r="27" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="91" t="s">
+        <v>689</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="C27" s="126"/>
+    </row>
+    <row r="28" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="91" t="s">
+        <v>692</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="C28" s="126"/>
+    </row>
+    <row r="29" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="91" t="s">
+        <v>681</v>
+      </c>
+      <c r="B29" s="123" t="s">
+        <v>686</v>
+      </c>
+      <c r="C29" s="92"/>
+    </row>
+    <row r="30" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="123" t="s">
+        <v>683</v>
+      </c>
+      <c r="B30" s="91" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>664</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>668</v>
-      </c>
-      <c r="B8" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>667</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>670</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>672</v>
-      </c>
-      <c r="C11" s="107" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="91" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>675</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A15" s="109" t="s">
-        <v>676</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>678</v>
-      </c>
-      <c r="C15" s="108" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>679</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>681</v>
-      </c>
-      <c r="C16" s="108" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="C30" s="91" t="s">
         <v>682</v>
       </c>
     </row>
+    <row r="31" spans="1:3" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="124" t="s">
+        <v>685</v>
+      </c>
+      <c r="B31" s="125"/>
+      <c r="C31" s="132" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="92"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="127" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="123" t="s">
+        <v>694</v>
+      </c>
+      <c r="B34" s="92" t="s">
+        <v>695</v>
+      </c>
+      <c r="C34" s="92" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="117" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="91" t="s">
+        <v>698</v>
+      </c>
+      <c r="B37" s="100" t="s">
+        <v>699</v>
+      </c>
+      <c r="C37" s="91" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="90" t="s">
+        <v>702</v>
+      </c>
+      <c r="C38" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="B39" s="91" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="92" t="s">
+        <v>705</v>
+      </c>
+      <c r="B41" s="92" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="90" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="91" t="s">
+        <v>708</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="92" t="s">
+        <v>710</v>
+      </c>
+      <c r="B45" s="92" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="B46" s="92" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="B47" s="92" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="92" t="s">
+        <v>715</v>
+      </c>
+      <c r="B48" s="92" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="92" t="s">
+        <v>716</v>
+      </c>
+      <c r="B49" s="92" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="92" t="s">
+        <v>717</v>
+      </c>
+      <c r="B50" s="92" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="92" t="s">
+        <v>718</v>
+      </c>
+      <c r="B51" s="91" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="92" t="s">
+        <v>712</v>
+      </c>
+      <c r="B52" s="91" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B55" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>729</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>737</v>
+      </c>
+      <c r="B73" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>740</v>
+      </c>
+      <c r="B74" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B83" s="13" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="73" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>817</v>
+      </c>
+      <c r="B94" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>819</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>827</v>
+      </c>
+      <c r="B97" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>828</v>
+      </c>
+      <c r="B98" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>826</v>
+      </c>
+      <c r="B99" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>830</v>
+      </c>
+      <c r="B100" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="B101" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="135">
+        <v>5.0694444444444452E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A31:B31"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" location="%D0%A0%D0%B0%D0%B1%D0%BE%D1%82%D0%B0-%D1%81-%D1%82%D0%B0%D0%B1%D0%BB%D0%B8%D1%86%D0%B0%D0%BC%D0%B8.-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D1%8B-%D1%80%D0%B0%D0%B1%D0%BE%D1%82%D1%8B-%D1%81-%D0%B4%D0%B0%D1%82%D0%B0%D1%84%D1%80%D0%B5%D0%B9%D0%BC%D0%B0%D0%BC%D0%B8-%D0%B2-pandas" display="http://localhost:8888/notebooks/Desktop/DS_HSE/DS_HSE_HW/Lect_10 np%2C pd/Lect10_Part2.ipynb - %D0%A0%D0%B0%D0%B1%D0%BE%D1%82%D0%B0-%D1%81-%D1%82%D0%B0%D0%B1%D0%BB%D0%B8%D1%86%D0%B0%D0%BC%D0%B8.-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D1%8B-%D1%80%D0%B0%D0%B1%D0%BE%D1%82%D1%8B-%D1%81-%D0%B4%D0%B0%D1%82%D0%B0%D1%84%D1%80%D0%B5%D0%B9%D0%BC%D0%B0%D0%BC%D0%B8-%D0%B2-pandas" xr:uid="{20917A7C-C375-4E92-B078-556E845D83BF}"/>
-    <hyperlink ref="A13" r:id="rId2" location="%D0%9E%D0%BF%D0%B5%D1%80%D0%B0%D1%86%D0%B8%D0%B8-%D1%81-%D1%82%D0%B0%D0%B1%D0%BB%D0%B8%D1%86%D0%B0%D0%BC%D0%B8" display="http://localhost:8888/notebooks/Desktop/DS_HSE/DS_HSE_HW/Lect_10 np%2C pd/Lect10_Part2.ipynb - %D0%9E%D0%BF%D0%B5%D1%80%D0%B0%D1%86%D0%B8%D0%B8-%D1%81-%D1%82%D0%B0%D0%B1%D0%BB%D0%B8%D1%86%D0%B0%D0%BC%D0%B8" xr:uid="{A00BF3BA-57F6-4BFF-B462-B9E5B15F287F}"/>
+    <hyperlink ref="A20" r:id="rId2" location="%D0%9E%D0%BF%D0%B5%D1%80%D0%B0%D1%86%D0%B8%D0%B8-%D1%81-%D1%82%D0%B0%D0%B1%D0%BB%D0%B8%D1%86%D0%B0%D0%BC%D0%B8" display="http://localhost:8888/notebooks/Desktop/DS_HSE/DS_HSE_HW/Lect_10 np%2C pd/Lect10_Part2.ipynb - %D0%9E%D0%BF%D0%B5%D1%80%D0%B0%D1%86%D0%B8%D0%B8-%D1%81-%D1%82%D0%B0%D0%B1%D0%BB%D0%B8%D1%86%D0%B0%D0%BC%D0%B8" xr:uid="{A00BF3BA-57F6-4BFF-B462-B9E5B15F287F}"/>
+    <hyperlink ref="A36" r:id="rId3" location="%D0%A3%D0%B4%D0%B0%D0%BB%D0%B5%D0%BD%D0%B8%D0%B5-%D0%BF%D1%80%D0%BE%D0%BF%D1%83%D1%89%D0%B5%D0%BD%D0%BD%D1%8B%D1%85-%D0%B7%D0%BD%D0%B0%D1%87%D0%B5%D0%BD%D0%B8%D0%B9" display="http://localhost:8888/notebooks/Desktop/DS_HSE/DS_HSE_HW/Lect_10 np%2C pd/Lect10_Part2.ipynb - %D0%A3%D0%B4%D0%B0%D0%BB%D0%B5%D0%BD%D0%B8%D0%B5-%D0%BF%D1%80%D0%BE%D0%BF%D1%83%D1%89%D0%B5%D0%BD%D0%BD%D1%8B%D1%85-%D0%B7%D0%BD%D0%B0%D1%87%D0%B5%D0%BD%D0%B8%D0%B9" xr:uid="{74021557-B43B-4644-9795-4F5BAF824B5A}"/>
+    <hyperlink ref="A38" r:id="rId4" location="%D0%9F%D1%80%D0%B5%D0%BE%D0%B1%D1%80%D0%B0%D0%B7%D0%BE%D0%B2%D0%B0%D0%BD%D0%B8%D0%B5-%D1%82%D0%B8%D0%BF%D0%BE%D0%B2-%D1%81%D1%82%D0%BE%D0%BB%D0%B1%D1%86%D0%BE%D0%B2" display="http://localhost:8888/notebooks/Desktop/DS_HSE/DS_HSE_HW/Lect_10 np%2C pd/Lect10_Part2.ipynb - %D0%9F%D1%80%D0%B5%D0%BE%D0%B1%D1%80%D0%B0%D0%B7%D0%BE%D0%B2%D0%B0%D0%BD%D0%B8%D0%B5-%D1%82%D0%B8%D0%BF%D0%BE%D0%B2-%D1%81%D1%82%D0%BE%D0%BB%D0%B1%D1%86%D0%BE%D0%B2" xr:uid="{7575AD23-69AD-4615-BC94-4CE40E72F3E5}"/>
+    <hyperlink ref="A43" r:id="rId5" location="%D0%9E%D0%BF%D0%B8%D1%81%D0%B0%D1%82%D0%B5%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5-%D1%81%D1%82%D0%B0%D1%82%D0%B8%D1%81%D1%82%D0%B8%D0%BA%D0%B8-%D0%B8-%D0%B1%D0%B0%D0%B7%D0%BE%D0%B2%D1%8B%D0%B5-%D0%B3%D1%80%D0%B0%D1%84%D0%B8%D0%BA%D0%B8" display="http://localhost:8888/notebooks/Desktop/DS_HSE/DS_HSE_HW/Lect_10 np%2C pd/Lect10_Part2.ipynb - %D0%9E%D0%BF%D0%B8%D1%81%D0%B0%D1%82%D0%B5%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5-%D1%81%D1%82%D0%B0%D1%82%D0%B8%D1%81%D1%82%D0%B8%D0%BA%D0%B8-%D0%B8-%D0%B1%D0%B0%D0%B7%D0%BE%D0%B2%D1%8B%D0%B5-%D0%B3%D1%80%D0%B0%D1%84%D0%B8%D0%BA%D0%B8" xr:uid="{D461C2BF-9864-4F44-807B-DB46D2A7F5E5}"/>
+    <hyperlink ref="B84" r:id="rId6" display="https://ru.wikipedia.org/wiki/%D0%AF%D1%89%D0%B8%D0%BA_%D1%81_%D1%83%D1%81%D0%B0%D0%BC%D0%B8" xr:uid="{2161F7C4-DA26-4371-8252-20021C76F5A2}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{B06E2C62-F518-4100-9D9E-F27952236315}"/>
+    <hyperlink ref="B6" r:id="rId8" location="min" xr:uid="{C3EB9D9E-FB08-4B85-8977-ACC75F975C15}"/>
+    <hyperlink ref="B5" r:id="rId9" xr:uid="{3517760A-74DD-4B91-914B-9840D2945334}"/>
+    <hyperlink ref="C31" r:id="rId10" xr:uid="{E3E6E85C-0759-4093-9CB4-5A30A1190FCE}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{BE61166A-8A67-4E61-9DF0-81B57018596D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FAD9F4-DFAC-4E18-BAED-EE776EABE89F}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.21875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
         <v>480</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="99" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1" s="95" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D1" s="95" t="s">
         <v>478</v>
       </c>
-      <c r="B12" s="33">
+      <c r="E1" s="95" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="92" t="s">
+        <v>773</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>792</v>
+      </c>
+      <c r="C2" s="128">
+        <v>45238</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>791</v>
+      </c>
+      <c r="E2" s="92"/>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="92" t="s">
+        <v>774</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>790</v>
+      </c>
+      <c r="C3" s="128">
+        <v>45243</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>789</v>
+      </c>
+      <c r="E3" s="92"/>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="92" t="s">
+        <v>775</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>788</v>
+      </c>
+      <c r="C4" s="128">
+        <v>45245</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>786</v>
+      </c>
+      <c r="E4" s="92"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="92" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>785</v>
+      </c>
+      <c r="C5" s="128">
+        <v>45250</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>787</v>
+      </c>
+      <c r="E5" s="92"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="92" t="s">
+        <v>777</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>784</v>
+      </c>
+      <c r="C6" s="128">
+        <v>45252</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>782</v>
+      </c>
+      <c r="E6" s="92"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="92" t="s">
+        <v>778</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>781</v>
+      </c>
+      <c r="C7" s="128">
+        <v>45257</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>783</v>
+      </c>
+      <c r="E7" s="92"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="92" t="s">
+        <v>779</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>772</v>
+      </c>
+      <c r="C8" s="128">
+        <v>45259</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>780</v>
+      </c>
+      <c r="E8" s="92"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="92" t="s">
+        <v>751</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>766</v>
+      </c>
+      <c r="C9" s="128">
+        <v>45264</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>749</v>
+      </c>
+      <c r="E9" s="92"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="92" t="s">
+        <v>752</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>767</v>
+      </c>
+      <c r="C10" s="128">
+        <v>45266</v>
+      </c>
+      <c r="D10" s="92" t="s">
+        <v>757</v>
+      </c>
+      <c r="E10" s="92"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="92" t="s">
+        <v>753</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>768</v>
+      </c>
+      <c r="C11" s="128">
         <v>45271</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D11" s="129" t="s">
         <v>477</v>
       </c>
-      <c r="D12" s="90">
-        <v>1</v>
-      </c>
+      <c r="E11" s="130" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="92" t="s">
+        <v>754</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>770</v>
+      </c>
+      <c r="C12" s="128">
+        <v>45273</v>
+      </c>
+      <c r="D12" s="129" t="s">
+        <v>760</v>
+      </c>
+      <c r="E12" s="130" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="92" t="s">
+        <v>755</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>769</v>
+      </c>
+      <c r="C13" s="128">
+        <v>45278</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>762</v>
+      </c>
+      <c r="E13" s="92"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="92" t="s">
+        <v>756</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>771</v>
+      </c>
+      <c r="C14" s="128">
+        <v>45285</v>
+      </c>
+      <c r="D14" s="92" t="s">
+        <v>764</v>
+      </c>
+      <c r="E14" s="92"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{275356E2-6CF5-4390-BCED-3E1140C5A56E}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{854CB7C9-2F8C-4139-A868-7984E6D93757}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DE2565-372E-4245-BCB1-F5D1905BBC22}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2" t="s">
+        <v>749</v>
+      </c>
+      <c r="E2" t="str">
+        <f>A2&amp;" "&amp;B2&amp;"
+"&amp;C2&amp;"
+"&amp;D2</f>
+        <v>Лекция 8 ООП Классы
+Ссылка на запись консультации 04.12.2023
+https://disk.yandex.ru/i/OSp2qDGwWtuQDA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D3" t="s">
+        <v>757</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E7" si="0">A3&amp;" "&amp;B3&amp;"
+"&amp;C3&amp;"
+"&amp;D3</f>
+        <v>Лекция 9 Телеграм-Бот
+Ссылка на запись консультации 06.12.2023
+https://disk.yandex.ru/i/d8K7cGfcV_tYkA</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C4" t="s">
+        <v>759</v>
+      </c>
+      <c r="D4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Лекция 10 Numpy, Pandas
+Ссылка на запись занятия 11.12.2023
+https://disk.yandex.ru/d/ZcrDUSoJ2XKf6Q</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>754</v>
+      </c>
+      <c r="B5" t="s">
+        <v>770</v>
+      </c>
+      <c r="C5" t="s">
+        <v>761</v>
+      </c>
+      <c r="D5" t="s">
+        <v>760</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Лекция 11 Pandas
+Ссылка на запись занятия 13.12.2023
+https://disk.yandex.ru/i/YyHdNpIcP9YETQ</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>755</v>
+      </c>
+      <c r="B6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C6" t="s">
+        <v>763</v>
+      </c>
+      <c r="D6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Лекция 12 Pandas EDA, html,requests
+Ссылка на запись занятия 18.12.2023
+https://disk.yandex.ru/d/eLUkZhx-aiOxQA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>756</v>
+      </c>
+      <c r="B7" t="s">
+        <v>771</v>
+      </c>
+      <c r="C7" t="s">
+        <v>765</v>
+      </c>
+      <c r="D7" t="s">
+        <v>764</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Лекция 13 Parsing html
+Ссылка на запись занятия 25.12.2023
+https://disk.yandex.ru/i/QSJodUV1eelbhA</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
